--- a/results/OtherData.xlsx
+++ b/results/OtherData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nils\Documents\GitHub\MasterImplementation\bgpsim\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0172847E-D323-4181-874E-54A768F9B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43108645-FC9B-4FD1-8F3A-7A1092EC1F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{31A0DC23-D9EF-425E-9746-EF10F325B7D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38655" windowHeight="21000" xr2:uid="{31A0DC23-D9EF-425E-9746-EF10F325B7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3755086169784332E-2"/>
+          <c:x val="6.3389711815295555E-2"/>
           <c:y val="1.7787515736534205E-2"/>
-          <c:w val="0.89684456109652977"/>
+          <c:w val="0.91728817696956022"/>
           <c:h val="0.85589382364318545"/>
         </c:manualLayout>
       </c:layout>
@@ -2421,7 +2421,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2434,15 +2434,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Number of Testruns</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t> </a:t>
                 </a:r>
               </a:p>
@@ -2461,7 +2461,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2499,7 +2499,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2549,7 +2549,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2562,7 +2562,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Deplyoment in %</a:t>
                 </a:r>
               </a:p>
@@ -2581,7 +2581,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2613,7 +2613,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2665,7 +2665,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3279,13 +3279,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
@@ -3635,7 +3635,7 @@
   <dimension ref="A1:C1331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
